--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Reln-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Reln-Lrp8.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H2">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I2">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J2">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N2">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O2">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P2">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q2">
-        <v>0.07307768907733334</v>
+        <v>0.03275537765722222</v>
       </c>
       <c r="R2">
-        <v>0.657699201696</v>
+        <v>0.294798398915</v>
       </c>
       <c r="S2">
-        <v>0.001265279761167781</v>
+        <v>0.003697291903133434</v>
       </c>
       <c r="T2">
-        <v>0.001950049961698009</v>
+        <v>0.005332622997852291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H3">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I3">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J3">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.241766</v>
       </c>
       <c r="O3">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P3">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q3">
-        <v>0.1066065554986667</v>
+        <v>0.05500160293711111</v>
       </c>
       <c r="R3">
-        <v>0.9594589994880001</v>
+        <v>0.495014426434</v>
       </c>
       <c r="S3">
-        <v>0.001845804359488305</v>
+        <v>0.006208354039658063</v>
       </c>
       <c r="T3">
-        <v>0.002844754836827656</v>
+        <v>0.008954340744000202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H4">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I4">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J4">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N4">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O4">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P4">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q4">
-        <v>0.1393077638506667</v>
+        <v>0.0901321965727778</v>
       </c>
       <c r="R4">
-        <v>1.253769874656</v>
+        <v>0.8111897691550001</v>
       </c>
       <c r="S4">
-        <v>0.002411998742697805</v>
+        <v>0.01017375052388337</v>
       </c>
       <c r="T4">
-        <v>0.003717373975437987</v>
+        <v>0.01467365234865371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H5">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I5">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J5">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N5">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O5">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P5">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q5">
-        <v>0.07520961235200001</v>
+        <v>0.02291757491666667</v>
       </c>
       <c r="R5">
-        <v>0.4512576741120001</v>
+        <v>0.1375054495</v>
       </c>
       <c r="S5">
-        <v>0.001302192249861064</v>
+        <v>0.002586841313983838</v>
       </c>
       <c r="T5">
-        <v>0.001337959674953016</v>
+        <v>0.002487342960587587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H6">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I6">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J6">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N6">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O6">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P6">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q6">
-        <v>0.1887340252266667</v>
+        <v>0.03583299206911111</v>
       </c>
       <c r="R6">
-        <v>1.69860622704</v>
+        <v>0.322496928622</v>
       </c>
       <c r="S6">
-        <v>0.003267773589697437</v>
+        <v>0.004044680321765654</v>
       </c>
       <c r="T6">
-        <v>0.005036294706512939</v>
+        <v>0.00583366308852399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I7">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J7">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N7">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O7">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P7">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q7">
-        <v>0.1731644543142222</v>
+        <v>0.1504406216155556</v>
       </c>
       <c r="R7">
-        <v>1.558480088828</v>
+        <v>1.35396559454</v>
       </c>
       <c r="S7">
-        <v>0.002998199343243975</v>
+        <v>0.01698111675042504</v>
       </c>
       <c r="T7">
-        <v>0.004620826708758698</v>
+        <v>0.02449195142958212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I8">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J8">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.241766</v>
       </c>
       <c r="O8">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P8">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q8">
         <v>0.2526142553537778</v>
@@ -948,10 +948,10 @@
         <v>2.273528298184</v>
       </c>
       <c r="S8">
-        <v>0.004373806954176722</v>
+        <v>0.02851405502661544</v>
       </c>
       <c r="T8">
-        <v>0.006740914021729778</v>
+        <v>0.04112596721619132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I9">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J9">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N9">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O9">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P9">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q9">
-        <v>0.3301028427897778</v>
+        <v>0.4139638938644445</v>
       </c>
       <c r="R9">
-        <v>2.970925585108</v>
+        <v>3.725675044780001</v>
       </c>
       <c r="S9">
-        <v>0.005715457773218037</v>
+        <v>0.04672653660084208</v>
       </c>
       <c r="T9">
-        <v>0.008808667105734642</v>
+        <v>0.06739392242101924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I10">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J10">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N10">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O10">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P10">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q10">
-        <v>0.178216246936</v>
+        <v>0.1052570436666667</v>
       </c>
       <c r="R10">
-        <v>1.069297481616</v>
+        <v>0.6315422620000001</v>
       </c>
       <c r="S10">
-        <v>0.003085666955351797</v>
+        <v>0.01188098086882298</v>
       </c>
       <c r="T10">
-        <v>0.00317042123160865</v>
+        <v>0.01142399959718878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I11">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J11">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N11">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O11">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P11">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q11">
-        <v>0.4472230156911112</v>
+        <v>0.1645756509857778</v>
       </c>
       <c r="R11">
-        <v>4.025007141220001</v>
+        <v>1.481180858872</v>
       </c>
       <c r="S11">
-        <v>0.007743296724716746</v>
+        <v>0.01857662055404407</v>
       </c>
       <c r="T11">
-        <v>0.01193397376997</v>
+        <v>0.02679315471545982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H12">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I12">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J12">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N12">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O12">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P12">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q12">
-        <v>6.994155800615833</v>
+        <v>1.043095719028333</v>
       </c>
       <c r="R12">
-        <v>41.964934803695</v>
+        <v>6.25857431417</v>
       </c>
       <c r="S12">
-        <v>0.1210980244819802</v>
+        <v>0.1177403416475724</v>
       </c>
       <c r="T12">
-        <v>0.1244242342024764</v>
+        <v>0.1132116641214648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H13">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I13">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J13">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.241766</v>
       </c>
       <c r="O13">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P13">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q13">
-        <v>10.20315321870167</v>
+        <v>1.751527250388667</v>
       </c>
       <c r="R13">
-        <v>61.21891931221001</v>
+        <v>10.509163502332</v>
       </c>
       <c r="S13">
-        <v>0.1766591613762646</v>
+        <v>0.1977051703921268</v>
       </c>
       <c r="T13">
-        <v>0.1815114735613562</v>
+        <v>0.1901007847633668</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H14">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I14">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J14">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N14">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O14">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P14">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q14">
-        <v>13.33293672677417</v>
+        <v>2.870261774281667</v>
       </c>
       <c r="R14">
-        <v>79.997620360645</v>
+        <v>17.22157064569</v>
       </c>
       <c r="S14">
-        <v>0.2308487749176858</v>
+        <v>0.3239833082976264</v>
       </c>
       <c r="T14">
-        <v>0.2371895178189881</v>
+        <v>0.3115218536543809</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H15">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I15">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J15">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N15">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O15">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P15">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q15">
-        <v>7.198198973385001</v>
+        <v>0.72981067525</v>
       </c>
       <c r="R15">
-        <v>28.79279589354</v>
+        <v>2.919242701</v>
       </c>
       <c r="S15">
-        <v>0.1246308633028149</v>
+        <v>0.08237801831074956</v>
       </c>
       <c r="T15">
-        <v>0.08536940653811005</v>
+        <v>0.05280632737816726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H16">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I16">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J16">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N16">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O16">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P16">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q16">
-        <v>18.06344992540417</v>
+        <v>1.141102417392667</v>
       </c>
       <c r="R16">
-        <v>108.380699552425</v>
+        <v>6.846614504356</v>
       </c>
       <c r="S16">
-        <v>0.3127536994676346</v>
+        <v>0.1288029334487509</v>
       </c>
       <c r="T16">
-        <v>0.3213441318858379</v>
+        <v>0.1238487525635613</v>
       </c>
     </row>
   </sheetData>
